--- a/Docs/Testing (TES)/Test_Cases/TS_Represent.xlsx
+++ b/Docs/Testing (TES)/Test_Cases/TS_Represent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Тестовые ситуации" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="80">
   <si>
     <t>N</t>
   </si>
@@ -132,12 +132,6 @@
     <t>1. действие 5                                                                                                                2. Нажать на кнопку "&lt;Prev"                                                                                   3. Действие 3</t>
   </si>
   <si>
-    <t>1. Действие 1                                                                                                               2.  Перейти на страницу http://www.http://vashchenko.ru/albums/Vladivostok/2/ и действие 2                                                                                                                 3. Удалить  из тестового аккаунта 5 фото                                                       4. Перейти на страницу http://www.http://vashchenko.ru/albums/Vladivostok                             5. Убедиться, что на странице теперь 9 фото, которые остались в тестовом аккаунте и внизу страницы присутствуют навигационные кнопки "&lt;Prev", "1", "Next&gt;" и они неактивны</t>
-  </si>
-  <si>
-    <t>1. Действие 1                                                                                                               2. Перейти на страницу http://www.http://vashchenko.ru/albums/Vladivostok/2/ и действие 2                                                                                                                 3. Добавить в тестовый аккаунт 3 фото с тегом #Vladivostok, зайти в админку и принудительно обновить фото                                                                                4. Перейти на страницу http://www.http://vashchenko.ru/albums/Vladivostok/                                                                                                             5. Убедиться, что на странице сначала идут 3 фото, которые мы загрузили только что и потом 6 фото, которые раньше были на этой странице первыми и внизу присутствуют кнопки "&lt;Prev", "1", "2", "Next&gt;", кнопки "&lt;Prev", "1" неактивны, а кнопки "2", "Next&gt;" активны                                                                                                     6. Перейти на страницу http://www.http://vashchenko.ru/albums/Vladivostok/2/                                                                                                          7. Убедиться, что на странице 8 фото, причем первые 3 фото те, которые раньше были на предыдущей странице, а потом остальные 5 фото которые раньше были на этой странице 8.  Убедиться, что внизу страницы присутствуют кнопки "&lt;Prev", "1", "2", "Next&gt;" и кнопки "&lt;Prev", "1" активны, а кнопки "2", "Next&gt;" неактивны</t>
-  </si>
-  <si>
     <t>Дополнительные условия, выполняеые перед каждым тестом</t>
   </si>
   <si>
@@ -219,25 +213,49 @@
     <t>Убедиться, что мы перешли на страницу</t>
   </si>
   <si>
-    <t>1. Перейти на страницу http://www.http://vashchenko.ru/albums/Vladivostok/                                                                                  2. Убедиться, что на странице 9 фото, которые мы загружали в тестовый аккаунт  с тегом #Vladivostok                                                            3. Убедиться, что на странице внизу присутствуют кнопки "&lt;Prev", "1", "2", "Next&gt;"                                                                           4. Убедиться, что кнопки "&lt;Prev", "1" неактивны, а кнопки "2", "Next&gt;" активны</t>
-  </si>
-  <si>
     <t>Действие 2</t>
   </si>
   <si>
-    <t>1. Убедиться, что мы перешли на страницу http://www.http://vashchenko.ru/albums/Vladivostok/2/                                                                               2. Убедиться, что на странице 5 фото, которые мы загружали в тестовый аккаунт с тегом #Vladivostok и они отличаются от фото на странице http://www.http://vashchenko.ru/albums/Vladivostok/                                                                                  3. Убедиться, что внизу страницы присутствуют кнопки "&lt;Prev", "1", "2", "Next&gt;" и кнопки "&lt;Prev", "1" активны, а кнопки "2", "Next&gt;" неактивны</t>
-  </si>
-  <si>
     <t>Действие 3</t>
   </si>
   <si>
-    <t>1.. Убедиться, что мы перешли на страницу http://www.http://vashchenko.ru/albums/Vladivostok/1/                                                                             2. Убедиться, что на странице 9 фото, которые мы загружали в тестовый аккаунт  с тегом #Vladivostok и они отличаются от фото на странице http://www.http://vashchenko.ru/albums/Vladivostok/2/                                                                             3. Убедиться, что на странице внизу присутствуют кнопки "&lt;Prev", "1", "2", "Next&gt;"                                                                           4. Убедиться, что кнопки "&lt;Prev", "1" неактивны, а кнопки "2", "Next&gt;" активны</t>
-  </si>
-  <si>
     <t>1. Действие 1                                                                                                   2. Нажать на кнопку "Next&gt;"                                                                              3. Действие 2</t>
   </si>
   <si>
     <t>1. Действие 1                                                                                                   2. Нажать на кнопку "2"                                                                              3. Действие 2</t>
+  </si>
+  <si>
+    <t>Zazulya</t>
+  </si>
+  <si>
+    <t>1. Перейти на страницу http://www.http://vashchenko.ru/albums/Vladivostok/                                                                                  2. Убедиться, что на странице 10 фото, которые мы загружали в тестовый аккаунт  с тегом #Vladivostok                                                            3. Убедиться, что на странице внизу присутствуют кнопки "&lt;Prev", "1", "2", "Next&gt;"                                                                           4. Убедиться, что кнопки "&lt;Prev", "1" неактивны, а кнопки "2", "Next&gt;" активны</t>
+  </si>
+  <si>
+    <t>1.. Убедиться, что мы перешли на страницу http://www.http://vashchenko.ru/albums/Vladivostok/1/                                                                             2. Убедиться, что на странице 10 фото, которые мы загружали в тестовый аккаунт  с тегом #Vladivostok и они отличаются от фото на странице http://www.http://vashchenko.ru/albums/Vladivostok/2/                                                                             3. Убедиться, что на странице внизу присутствуют кнопки "&lt;Prev", "1", "2", "Next&gt;"                                                                           4. Убедиться, что кнопки "&lt;Prev", "1" неактивны, а кнопки "2", "Next&gt;" активны</t>
+  </si>
+  <si>
+    <t>1. Убедиться, что мы перешли на страницу http://www.http://vashchenko.ru/albums/Vladivostok/2/                                                                               2. Убедиться, что на странице 4 фото, которые мы загружали в тестовый аккаунт с тегом #Vladivostok и они отличаются от фото на странице http://www.http://vashchenko.ru/albums/Vladivostok/                                                                                  3. Убедиться, что внизу страницы присутствуют кнопки "&lt;Prev", "1", "2", "Next&gt;" и кнопки "&lt;Prev", "1" активны, а кнопки "2", "Next&gt;" неактивны</t>
+  </si>
+  <si>
+    <t>1. Действие 1                                                                                                               2. Перейти на страницу http://www.http://vashchenko.ru/albums/Vladivostok/2/ и действие 2                                                                                                                 3. Добавить в тестовый аккаунт 3 фото с тегом #Vladivostok, зайти в админку и принудительно обновить фото                                                                                4. Перейти на страницу http://www.http://vashchenko.ru/albums/Vladivostok/                                                                                                             5. Убедиться, что на странице сначала идут 3 фото, которые мы загрузили только что и потом 6 фото, которые раньше были на этой странице первыми и внизу присутствуют кнопки "&lt;Prev", "1", "2", "Next&gt;", кнопки "&lt;Prev", "1" неактивны, а кнопки "2", "Next&gt;" активны                                                                                                     6. Перейти на страницу http://www.http://vashchenko.ru/albums/Vladivostok/2/                                                                                                          7. Убедиться, что на странице 7 фото, причем первые 3 фото те, которые раньше были на предыдущей странице, а потом остальные 4 фото которые раньше были на этой странице            8.  Убедиться, что внизу страницы присутствуют кнопки "&lt;Prev", "1", "2", "Next&gt;" и кнопки "&lt;Prev", "1" активны, а кнопки "2", "Next&gt;" неактивны</t>
+  </si>
+  <si>
+    <t>1. Действие 1                                                                                                               2.  Перейти на страницу http://www.http://vashchenko.ru/albums/Vladivostok/2/ и действие 2                                                                                                                 3. Удалить  из тестового аккаунта 4 фото                                                       4. Перейти на страницу http://www.http://vashchenko.ru/albums/Vladivostok                             5. Убедиться, что на странице теперь 10 фото, которые остались в тестовом аккаунте и внизу страницы присутствуют навигационные кнопки "&lt;Prev", "1", "Next&gt;" и они неактивны</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>1. Pass                             2. Pass                             3. Pass</t>
+  </si>
+  <si>
+    <t>1. Pass                             2. Pass                             3. Pass                              4. Pass                             5. Pass                             6. Pass                              7. Pass                             8. Pass</t>
+  </si>
+  <si>
+    <t>1. Pass                             2. Pass                             3. Pass                              4. Pass                             5. Pass</t>
+  </si>
+  <si>
+    <t>ver 1.0</t>
   </si>
 </sst>
 </file>
@@ -315,15 +333,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -332,6 +350,14 @@
   </cellStyles>
   <dxfs count="19">
     <dxf>
+      <font>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -342,9 +368,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -414,18 +437,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I2" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I10" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I10"/>
   <tableColumns count="9">
     <tableColumn id="2" name="N" dataDxfId="8"/>
     <tableColumn id="3" name="Test ID" dataDxfId="7"/>
     <tableColumn id="5" name="Product" dataDxfId="6"/>
-    <tableColumn id="6" name="Requirement" dataDxfId="5"/>
-    <tableColumn id="7" name="Tester name" dataDxfId="4"/>
-    <tableColumn id="8" name="Test steps" dataDxfId="3"/>
-    <tableColumn id="9" name="Result" dataDxfId="2"/>
-    <tableColumn id="10" name="Ticket ID" dataDxfId="1"/>
-    <tableColumn id="11" name="System" dataDxfId="0"/>
+    <tableColumn id="6" name="Requirement" dataDxfId="0"/>
+    <tableColumn id="7" name="Tester name" dataDxfId="5"/>
+    <tableColumn id="8" name="Test steps" dataDxfId="4"/>
+    <tableColumn id="9" name="Result" dataDxfId="3"/>
+    <tableColumn id="10" name="Ticket ID" dataDxfId="2"/>
+    <tableColumn id="11" name="System" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -720,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,7 +934,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="150" x14ac:dyDescent="0.25">
@@ -931,7 +954,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -952,7 +975,7 @@
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" s="5"/>
       <c r="E13" s="8"/>
@@ -960,7 +983,7 @@
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5"/>
       <c r="E14" s="8"/>
@@ -968,7 +991,7 @@
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" s="5"/>
       <c r="E15" s="8"/>
@@ -976,7 +999,7 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" s="5"/>
       <c r="E16" s="8"/>
@@ -984,28 +1007,28 @@
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" s="5"/>
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="9"/>
       <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C19" s="5"/>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20" s="5"/>
       <c r="E20" s="8"/>
@@ -1021,121 +1044,121 @@
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C26" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C27" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
@@ -1144,33 +1167,33 @@
       </c>
     </row>
     <row r="46" spans="2:4" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D46" s="12"/>
+      <c r="C46" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="14"/>
     </row>
     <row r="47" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" s="13"/>
+        <v>65</v>
+      </c>
+      <c r="C47" s="11"/>
     </row>
     <row r="48" spans="2:4" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D48" s="14"/>
+      <c r="C48" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="15"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="12"/>
+      <c r="D50" s="14"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
@@ -1178,8 +1201,8 @@
       </c>
     </row>
     <row r="52" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C52" s="15" t="s">
-        <v>72</v>
+      <c r="C52" s="12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
@@ -1188,8 +1211,8 @@
       </c>
     </row>
     <row r="54" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C54" s="15" t="s">
-        <v>73</v>
+      <c r="C54" s="12" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1208,17 +1231,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.140625" customWidth="1"/>
     <col min="7" max="7" width="22.85546875" customWidth="1"/>
@@ -1255,16 +1279,248 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+    <row r="2" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Testing (TES)/Test_Cases/TS_Represent.xlsx
+++ b/Docs/Testing (TES)/Test_Cases/TS_Represent.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="81">
   <si>
     <t>N</t>
   </si>
@@ -256,13 +256,16 @@
   </si>
   <si>
     <t>ver 1.0</t>
+  </si>
+  <si>
+    <t>v 1.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +286,11 @@
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -305,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -337,6 +345,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -350,27 +361,27 @@
   </cellStyles>
   <dxfs count="19">
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <sz val="12"/>
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -437,18 +448,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I10" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I19" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I19"/>
   <tableColumns count="9">
     <tableColumn id="2" name="N" dataDxfId="8"/>
     <tableColumn id="3" name="Test ID" dataDxfId="7"/>
     <tableColumn id="5" name="Product" dataDxfId="6"/>
-    <tableColumn id="6" name="Requirement" dataDxfId="0"/>
-    <tableColumn id="7" name="Tester name" dataDxfId="5"/>
-    <tableColumn id="8" name="Test steps" dataDxfId="4"/>
-    <tableColumn id="9" name="Result" dataDxfId="3"/>
-    <tableColumn id="10" name="Ticket ID" dataDxfId="2"/>
-    <tableColumn id="11" name="System" dataDxfId="1"/>
+    <tableColumn id="6" name="Requirement" dataDxfId="5"/>
+    <tableColumn id="7" name="Tester name" dataDxfId="4"/>
+    <tableColumn id="8" name="Test steps" dataDxfId="3"/>
+    <tableColumn id="9" name="Result" dataDxfId="2"/>
+    <tableColumn id="10" name="Ticket ID" dataDxfId="1"/>
+    <tableColumn id="11" name="System" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1167,10 +1178,10 @@
       </c>
     </row>
     <row r="46" spans="2:4" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D46" s="14"/>
+      <c r="D46" s="15"/>
     </row>
     <row r="47" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
@@ -1179,10 +1190,10 @@
       <c r="C47" s="11"/>
     </row>
     <row r="48" spans="2:4" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D48" s="15"/>
+      <c r="D48" s="16"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
@@ -1190,10 +1201,10 @@
       </c>
     </row>
     <row r="50" spans="2:4" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="14"/>
+      <c r="D50" s="15"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
@@ -1231,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,6 +1531,249 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
